--- a/AAII_Financials/Quarterly/SNTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNTW_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>SNTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,8 +824,8 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,8 +874,8 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,23 +1006,26 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1015,8 +1035,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1125,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1108,31 +1135,31 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-300</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -1146,8 +1173,11 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,31 +1185,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -1193,8 +1223,11 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1293,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,31 +1305,31 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,8 +1393,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1362,31 +1405,31 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
@@ -1400,8 +1443,11 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1438,17 +1484,20 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1543,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1503,31 +1555,31 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
@@ -1541,8 +1593,11 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1550,31 +1605,31 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
@@ -1588,8 +1643,11 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,8 +1893,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1832,31 +1905,31 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
@@ -1870,8 +1943,11 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1993,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1926,31 +2005,31 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -1964,60 +2043,66 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2140,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2086,11 +2173,11 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,16 +2338,19 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2271,11 +2370,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,16 +2488,19 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2588,8 +2708,8 @@
       <c r="G52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2788,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,28 +2880,29 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -2785,28 +2916,31 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2856,22 +2993,22 @@
         <v>100</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
         <v>300</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2891,8 +3028,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2903,16 +3043,16 @@
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -2924,7 +3064,7 @@
         <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3328,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3185,16 +3343,16 @@
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
         <v>300</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
@@ -3206,7 +3364,7 @@
         <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,8 +3598,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3436,19 +3610,19 @@
         <v>-500</v>
       </c>
       <c r="E72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-100</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-400</v>
       </c>
       <c r="H72" s="3">
         <v>-400</v>
       </c>
       <c r="I72" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="J72" s="3">
         <v>-100</v>
@@ -3460,7 +3634,7 @@
         <v>-100</v>
       </c>
       <c r="M72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +3798,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3627,16 +3813,16 @@
         <v>-100</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
         <v>-300</v>
       </c>
       <c r="I76" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="J76" s="3">
         <v>-100</v>
@@ -3648,7 +3834,7 @@
         <v>-100</v>
       </c>
       <c r="M76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N76" s="3">
         <v>0</v>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3898,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3770,31 +3965,31 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
@@ -3808,8 +4003,11 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,13 +4025,14 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4121,23 +4338,23 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,13 +4543,16 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,8 +4813,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4582,23 +4828,23 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4617,8 +4863,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4913,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>SNTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,89 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +796,14 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -827,11 +840,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -839,8 +852,14 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -877,11 +896,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -889,8 +908,14 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,40 +1042,46 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1059,8 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,47 +1177,49 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1176,8 +1229,14 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1188,35 +1247,35 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
-        <v>300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1226,8 +1285,14 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1311,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1296,47 +1363,53 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-400</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3">
-        <v>300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
@@ -1346,8 +1419,14 @@
       <c r="R21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,47 +1475,53 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
-        <v>300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1446,8 +1531,14 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1487,17 +1578,23 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,47 +1643,53 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
-        <v>300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -1596,47 +1699,53 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
-        <v>300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -1646,8 +1755,14 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1979,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1896,47 +2035,53 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
-        <v>300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -1946,8 +2091,14 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,47 +2147,53 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
-        <v>300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -2046,63 +2203,75 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,13 +2312,15 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2176,14 +2349,14 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2191,8 +2364,14 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2420,14 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2476,14 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,22 +2532,28 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2373,14 +2570,14 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2391,13 +2588,19 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2441,8 +2644,14 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,16 +2700,22 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2541,8 +2756,14 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2812,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,25 +2924,31 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -2741,8 +2980,14 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,13 +3036,19 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2841,8 +3092,14 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3140,10 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2919,20 +3180,26 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2942,11 +3209,11 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2981,41 +3248,47 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
+        <v>100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
@@ -3031,34 +3304,40 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
+        <v>100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
-      </c>
-      <c r="J60" s="3">
-        <v>100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
@@ -3067,10 +3346,10 @@
         <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
@@ -3081,8 +3360,14 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3416,14 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3472,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,34 +3640,40 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F66" s="3">
         <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
+        <v>100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>100</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
@@ -3367,10 +3682,10 @@
         <v>100</v>
       </c>
       <c r="N66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
@@ -3381,8 +3696,14 @@
       <c r="R66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,34 +3942,40 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-100</v>
       </c>
       <c r="L72" s="3">
         <v>-100</v>
@@ -3637,10 +3984,10 @@
         <v>-100</v>
       </c>
       <c r="N72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P72" s="3">
         <v>0</v>
@@ -3651,8 +3998,14 @@
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,34 +4166,40 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F76" s="3">
         <v>-100</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-100</v>
       </c>
       <c r="L76" s="3">
         <v>-100</v>
@@ -3837,10 +4208,10 @@
         <v>-100</v>
       </c>
       <c r="N76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P76" s="3">
         <v>0</v>
@@ -3851,8 +4222,14 @@
       <c r="R76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,102 +4278,114 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
-        <v>300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -4006,8 +4395,14 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,13 +4421,15 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4076,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4753,14 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4335,32 +4768,32 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -4376,8 +4809,14 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4835,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4887,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,13 +4999,19 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4596,8 +5055,14 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,41 +5301,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -4866,8 +5357,14 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,13 +5413,19 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -4964,6 +5467,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>SNTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42674</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,8 +853,8 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -858,8 +865,11 @@
       <c r="T9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +912,8 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
@@ -914,8 +924,11 @@
       <c r="T10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,32 +1065,35 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1083,8 +1103,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1205,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1188,7 +1215,7 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1197,31 +1224,31 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
@@ -1235,8 +1262,11 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -1253,31 +1283,31 @@
         <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
@@ -1291,8 +1321,11 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1403,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1383,35 +1420,35 @@
       <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
       <c r="N21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,8 +1521,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1490,7 +1533,7 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -1499,31 +1542,31 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
@@ -1537,8 +1580,11 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1584,17 +1630,20 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1698,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1658,7 +1710,7 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
@@ -1667,31 +1719,31 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
@@ -1705,8 +1757,11 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1714,7 +1769,7 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>0</v>
@@ -1723,31 +1778,31 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
@@ -1761,8 +1816,11 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,8 +2111,11 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2050,7 +2123,7 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
@@ -2059,31 +2132,31 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
@@ -2097,8 +2170,11 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2229,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2162,7 +2241,7 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
@@ -2171,31 +2250,31 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
@@ -2209,69 +2288,75 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42674</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,17 +2400,18 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -2355,11 +2442,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2370,8 +2457,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2549,14 +2648,14 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -2576,11 +2675,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2594,17 +2693,20 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,17 +3165,20 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>300</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3186,20 +3317,23 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3215,8 +3349,8 @@
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -3254,8 +3388,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3263,10 +3400,10 @@
         <v>500</v>
       </c>
       <c r="E59" s="3">
+        <v>500</v>
+      </c>
+      <c r="F59" s="3">
         <v>200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -3275,22 +3412,22 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3310,8 +3447,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3319,10 +3459,10 @@
         <v>500</v>
       </c>
       <c r="E60" s="3">
+        <v>500</v>
+      </c>
+      <c r="F60" s="3">
         <v>200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -3331,16 +3471,16 @@
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>300</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
@@ -3352,7 +3492,7 @@
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3801,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3655,10 +3813,10 @@
         <v>500</v>
       </c>
       <c r="E66" s="3">
+        <v>500</v>
+      </c>
+      <c r="F66" s="3">
         <v>200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
@@ -3667,16 +3825,16 @@
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3">
         <v>300</v>
       </c>
       <c r="L66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M66" s="3">
         <v>100</v>
@@ -3688,7 +3846,7 @@
         <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q66" s="3">
         <v>0</v>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,37 +4119,40 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E72" s="3">
         <v>-600</v>
       </c>
       <c r="F72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="G72" s="3">
         <v>-500</v>
       </c>
       <c r="H72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I72" s="3">
         <v>-200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-400</v>
       </c>
       <c r="K72" s="3">
         <v>-400</v>
       </c>
       <c r="L72" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="M72" s="3">
         <v>-100</v>
@@ -3990,7 +4164,7 @@
         <v>-100</v>
       </c>
       <c r="P72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,19 +4355,22 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E76" s="3">
         <v>-200</v>
       </c>
       <c r="F76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G76" s="3">
         <v>-100</v>
@@ -4193,16 +4379,16 @@
         <v>-100</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>-300</v>
       </c>
       <c r="L76" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="M76" s="3">
         <v>-100</v>
@@ -4214,7 +4400,7 @@
         <v>-100</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4473,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42674</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4354,7 +4549,7 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>0</v>
@@ -4363,31 +4558,31 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
@@ -4401,8 +4596,11 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,20 +4973,23 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -4780,23 +4997,23 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,20 +5550,23 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -5334,17 +5580,17 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,17 +5668,20 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>SNTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,101 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +817,14 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -856,11 +870,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T9" s="3">
         <v>0</v>
@@ -868,8 +882,14 @@
       <c r="U9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -915,11 +935,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T10" s="3">
         <v>0</v>
@@ -927,8 +947,14 @@
       <c r="U10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +976,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1037,14 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,49 +1102,55 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1127,8 +1167,14 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1232,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,8 +1258,10 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1215,47 +1269,47 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>300</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
@@ -1265,8 +1319,14 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,47 +1334,47 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1324,8 +1384,14 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1413,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1406,8 +1474,14 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1423,39 +1497,39 @@
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
@@ -1465,8 +1539,14 @@
       <c r="U21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,8 +1604,14 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1533,47 +1619,47 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
@@ -1583,8 +1669,14 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1633,17 +1725,23 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,8 +1799,14 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1710,47 +1814,47 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
@@ -1760,8 +1864,14 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1769,47 +1879,47 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
@@ -1819,8 +1929,14 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1994,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2059,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2124,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2189,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2114,8 +2254,14 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2123,47 +2269,47 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
@@ -2173,8 +2319,14 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,8 +2384,14 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2241,47 +2399,47 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
@@ -2291,72 +2449,84 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2548,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,23 +2573,25 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2445,14 +2619,14 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
+      <c r="Q41" s="3">
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -2460,8 +2634,14 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,8 +2699,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2764,14 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2829,14 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2651,17 +2849,17 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2678,14 +2876,14 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2696,23 +2894,29 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -2755,8 +2959,14 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +3024,14 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2825,20 +3041,20 @@
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2873,8 +3089,14 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3154,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3219,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3284,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3349,14 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,23 +3414,29 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>300</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -3227,8 +3479,14 @@
       <c r="U54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3508,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,31 +3533,33 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3320,37 +3582,43 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -3391,50 +3659,56 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>700</v>
+      </c>
+      <c r="F59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
@@ -3450,43 +3724,49 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>700</v>
+      </c>
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>100</v>
-      </c>
-      <c r="H60" s="3">
-        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
+        <v>100</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
@@ -3495,10 +3775,10 @@
         <v>100</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S60" s="3">
         <v>0</v>
@@ -3509,8 +3789,14 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3854,14 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3919,14 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3984,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4049,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,43 +4114,49 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>700</v>
+      </c>
+      <c r="F66" s="3">
         <v>500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K66" s="3">
+        <v>100</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>100</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
@@ -3849,10 +4165,10 @@
         <v>100</v>
       </c>
       <c r="Q66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S66" s="3">
         <v>0</v>
@@ -3863,8 +4179,14 @@
       <c r="U66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4208,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4269,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4334,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4399,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,43 +4464,49 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-400</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-100</v>
       </c>
       <c r="O72" s="3">
         <v>-100</v>
@@ -4167,10 +4515,10 @@
         <v>-100</v>
       </c>
       <c r="Q72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
@@ -4181,8 +4529,14 @@
       <c r="U72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4594,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4659,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,43 +4724,49 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-100</v>
       </c>
       <c r="I76" s="3">
         <v>-100</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-100</v>
       </c>
       <c r="O76" s="3">
         <v>-100</v>
@@ -4403,10 +4775,10 @@
         <v>-100</v>
       </c>
       <c r="Q76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S76" s="3">
         <v>0</v>
@@ -4417,8 +4789,14 @@
       <c r="U76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,72 +4854,84 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4549,47 +4939,47 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
@@ -4599,8 +4989,14 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,28 +5018,30 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -4681,8 +5079,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5144,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5209,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5274,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5339,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,16 +5404,22 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -4994,32 +5428,32 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -5035,8 +5469,14 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5498,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5117,8 +5559,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5624,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,8 +5689,14 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5294,8 +5754,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5783,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5844,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5909,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5974,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,8 +6039,14 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5562,17 +6054,17 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -5583,20 +6075,20 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5612,8 +6104,14 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,23 +6169,29 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -5728,6 +6232,12 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>SNTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,108 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -823,8 +830,14 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -876,11 +889,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
@@ -888,8 +901,14 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -941,11 +960,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V10" s="3">
         <v>0</v>
@@ -953,8 +972,14 @@
       <c r="W10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,55 +1141,61 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>-100</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-300</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1173,8 +1212,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1238,8 +1283,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,8 +1311,10 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1269,53 +1322,53 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
@@ -1325,8 +1378,14 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1334,53 +1393,53 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
@@ -1390,8 +1449,14 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,8 +1480,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1480,19 +1547,25 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-100</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1503,39 +1576,39 @@
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
+      <c r="J21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
         <v>0</v>
       </c>
@@ -1545,8 +1618,14 @@
       <c r="W21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1610,8 +1689,14 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1619,53 +1704,53 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
@@ -1675,8 +1760,14 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1731,17 +1822,23 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>4</v>
+      <c r="U24" s="3">
+        <v>0</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,8 +1902,14 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1814,53 +1917,53 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
@@ -1870,8 +1973,14 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1879,53 +1988,53 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
@@ -1935,8 +2044,14 @@
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,8 +2328,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2260,8 +2399,14 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2269,53 +2414,53 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
@@ -2325,8 +2470,14 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,8 +2541,14 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2399,53 +2556,53 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
@@ -2455,78 +2612,90 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,8 +2746,10 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2587,17 +2760,17 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2625,14 +2798,14 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
+      <c r="S41" s="3">
+        <v>0</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
+      <c r="U41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
@@ -2640,8 +2813,14 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2705,8 +2884,14 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2770,8 +2955,14 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,13 +3026,19 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2855,17 +3052,17 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2882,14 +3079,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -2900,8 +3097,14 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2912,17 +3115,17 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
+        <v>100</v>
+      </c>
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -2965,8 +3168,14 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3030,8 +3239,14 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3041,11 +3256,11 @@
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
@@ -3056,11 +3271,11 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -3095,8 +3310,14 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3160,8 +3381,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,8 +3523,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3355,8 +3594,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,8 +3665,14 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3432,17 +3683,17 @@
         <v>100</v>
       </c>
       <c r="F54" s="3">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -3485,8 +3736,14 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,22 +3794,24 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
@@ -3561,11 +3822,11 @@
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -3588,20 +3849,26 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3665,56 +3932,62 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>600</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
@@ -3730,8 +4003,14 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3742,37 +4021,37 @@
         <v>700</v>
       </c>
       <c r="F60" s="3">
+        <v>800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>700</v>
+      </c>
+      <c r="H60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
+        <v>100</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>100</v>
-      </c>
-      <c r="P60" s="3">
-        <v>100</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
@@ -3781,10 +4060,10 @@
         <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U60" s="3">
         <v>0</v>
@@ -3795,8 +4074,14 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3860,8 +4145,14 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3925,8 +4216,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,8 +4429,14 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4132,37 +4447,37 @@
         <v>700</v>
       </c>
       <c r="F66" s="3">
+        <v>800</v>
+      </c>
+      <c r="G66" s="3">
+        <v>700</v>
+      </c>
+      <c r="H66" s="3">
         <v>500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
+        <v>100</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>100</v>
-      </c>
-      <c r="P66" s="3">
-        <v>100</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
@@ -4171,10 +4486,10 @@
         <v>100</v>
       </c>
       <c r="S66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U66" s="3">
         <v>0</v>
@@ -4185,8 +4500,14 @@
       <c r="W66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,49 +4811,55 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-1000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-100</v>
       </c>
       <c r="Q72" s="3">
         <v>-100</v>
@@ -4521,10 +4868,10 @@
         <v>-100</v>
       </c>
       <c r="S72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U72" s="3">
         <v>0</v>
@@ -4535,8 +4882,14 @@
       <c r="W72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,8 +5095,14 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4739,40 +5110,40 @@
         <v>-700</v>
       </c>
       <c r="E76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G76" s="3">
         <v>-600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-100</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>
       </c>
       <c r="L76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-300</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-100</v>
       </c>
       <c r="Q76" s="3">
         <v>-100</v>
@@ -4781,10 +5152,10 @@
         <v>-100</v>
       </c>
       <c r="S76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U76" s="3">
         <v>0</v>
@@ -4795,8 +5166,14 @@
       <c r="W76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,78 +5237,90 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4939,53 +5328,53 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
@@ -4995,8 +5384,14 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,19 +5415,21 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -5043,11 +5440,11 @@
       <c r="I83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5085,8 +5482,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,8 +5837,14 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5419,13 +5852,13 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -5434,32 +5867,32 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
@@ -5475,8 +5908,14 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,8 +5939,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5565,8 +6006,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,8 +6148,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5760,8 +6219,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,32 +6530,38 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6081,20 +6572,20 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -6110,8 +6601,14 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,8 +6672,14 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6184,20 +6687,20 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -6238,6 +6741,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>SNTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,112 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -836,8 +840,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -895,8 +902,8 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="3">
-        <v>0</v>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W9" s="3">
         <v>0</v>
@@ -907,8 +914,11 @@
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -966,8 +976,8 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W10" s="3">
         <v>0</v>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,47 +1164,50 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1197,8 +1217,8 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1218,8 +1238,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,8 +1339,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1322,22 +1349,22 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>100</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
@@ -1346,31 +1373,31 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
       <c r="S17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T17" s="3">
         <v>100</v>
       </c>
       <c r="U17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V17" s="3">
         <v>0</v>
@@ -1384,8 +1411,11 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,22 +1423,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-100</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -1417,31 +1447,31 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V18" s="3">
         <v>0</v>
@@ -1455,8 +1485,11 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1515,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1553,8 +1587,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1562,14 +1599,14 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1582,35 +1619,35 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
+      <c r="O21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
       <c r="S21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V21" s="3">
         <v>0</v>
@@ -1624,8 +1661,11 @@
       <c r="Y21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,8 +1735,11 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1704,22 +1747,22 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-100</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1728,31 +1771,31 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>0</v>
@@ -1766,8 +1809,11 @@
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1828,17 +1874,20 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,8 +1957,11 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1917,22 +1969,22 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-100</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
@@ -1941,31 +1993,31 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>0</v>
@@ -1979,8 +2031,11 @@
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1988,22 +2043,22 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-100</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
@@ -2012,31 +2067,31 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>0</v>
@@ -2050,8 +2105,11 @@
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2401,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2405,8 +2475,11 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2414,22 +2487,22 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-100</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
@@ -2438,31 +2511,31 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>0</v>
@@ -2476,8 +2549,11 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,8 +2623,11 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2556,22 +2635,22 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-100</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
@@ -2580,31 +2659,31 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>0</v>
@@ -2618,84 +2697,90 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,13 +2834,14 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2766,14 +2853,14 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2804,11 +2891,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -2819,8 +2906,11 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2980,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3054,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,16 +3128,19 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -3058,14 +3157,14 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3085,11 +3184,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3103,13 +3202,16 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -3121,14 +3223,14 @@
         <v>100</v>
       </c>
       <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -3174,8 +3276,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3350,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3262,8 +3370,8 @@
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -3277,8 +3385,8 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -3316,8 +3424,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,13 +3794,16 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -3689,14 +3815,14 @@
         <v>100</v>
       </c>
       <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -3742,8 +3868,11 @@
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3926,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3808,13 +3939,13 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
@@ -3828,8 +3959,8 @@
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3855,20 +3986,23 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
+      <c r="V57" s="3">
+        <v>0</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X57" s="3">
-        <v>0</v>
+      <c r="X57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,8 +4072,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3950,22 +4087,22 @@
         <v>600</v>
       </c>
       <c r="F59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G59" s="3">
         <v>700</v>
       </c>
       <c r="H59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="I59" s="3">
         <v>500</v>
       </c>
       <c r="J59" s="3">
+        <v>500</v>
+      </c>
+      <c r="K59" s="3">
         <v>200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -3974,22 +4111,22 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -4009,8 +4146,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4018,25 +4158,25 @@
         <v>800</v>
       </c>
       <c r="E60" s="3">
+        <v>800</v>
+      </c>
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>500</v>
       </c>
       <c r="I60" s="3">
         <v>500</v>
       </c>
       <c r="J60" s="3">
+        <v>500</v>
+      </c>
+      <c r="K60" s="3">
         <v>200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
@@ -4045,16 +4185,16 @@
         <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P60" s="3">
         <v>300</v>
       </c>
       <c r="Q60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R60" s="3">
         <v>100</v>
@@ -4066,7 +4206,7 @@
         <v>100</v>
       </c>
       <c r="U60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V60" s="3">
         <v>0</v>
@@ -4080,8 +4220,11 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,8 +4294,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,8 +4590,11 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4444,25 +4602,25 @@
         <v>800</v>
       </c>
       <c r="E66" s="3">
+        <v>800</v>
+      </c>
+      <c r="F66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>500</v>
       </c>
       <c r="I66" s="3">
         <v>500</v>
       </c>
       <c r="J66" s="3">
+        <v>500</v>
+      </c>
+      <c r="K66" s="3">
         <v>200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>100</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
@@ -4471,16 +4629,16 @@
         <v>100</v>
       </c>
       <c r="N66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P66" s="3">
         <v>300</v>
       </c>
       <c r="Q66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R66" s="3">
         <v>100</v>
@@ -4492,7 +4650,7 @@
         <v>100</v>
       </c>
       <c r="U66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V66" s="3">
         <v>0</v>
@@ -4506,8 +4664,11 @@
       <c r="Y66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,8 +4988,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4826,43 +5000,43 @@
         <v>-1200</v>
       </c>
       <c r="E72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="F72" s="3">
         <v>-1100</v>
       </c>
       <c r="G72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H72" s="3">
         <v>-1000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-600</v>
       </c>
       <c r="J72" s="3">
         <v>-600</v>
       </c>
       <c r="K72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="L72" s="3">
         <v>-500</v>
       </c>
       <c r="M72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N72" s="3">
         <v>-200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-100</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-400</v>
       </c>
       <c r="P72" s="3">
         <v>-400</v>
       </c>
       <c r="Q72" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="R72" s="3">
         <v>-100</v>
@@ -4874,7 +5048,7 @@
         <v>-100</v>
       </c>
       <c r="U72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V72" s="3">
         <v>0</v>
@@ -4888,8 +5062,11 @@
       <c r="Y72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,13 +5284,16 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="E76" s="3">
         <v>-700</v>
@@ -5116,19 +5302,19 @@
         <v>-700</v>
       </c>
       <c r="G76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H76" s="3">
         <v>-600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-200</v>
       </c>
       <c r="J76" s="3">
         <v>-200</v>
       </c>
       <c r="K76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L76" s="3">
         <v>-100</v>
@@ -5137,16 +5323,16 @@
         <v>-100</v>
       </c>
       <c r="N76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="P76" s="3">
         <v>-300</v>
       </c>
       <c r="Q76" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="R76" s="3">
         <v>-100</v>
@@ -5158,7 +5344,7 @@
         <v>-100</v>
       </c>
       <c r="U76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V76" s="3">
         <v>0</v>
@@ -5172,8 +5358,11 @@
       <c r="Y76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,84 +5432,90 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5328,22 +5523,22 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-100</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -5352,31 +5547,31 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>0</v>
@@ -5390,8 +5585,11 @@
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5431,8 +5630,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -5446,8 +5645,8 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,8 +6057,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5858,20 +6075,20 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -5879,23 +6096,23 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
@@ -5914,8 +6131,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6381,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6225,8 +6455,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,35 +6779,38 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -6578,17 +6824,17 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6607,8 +6853,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,8 +6927,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6693,17 +6945,17 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
       </c>
       <c r="I102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -6747,6 +6999,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>SNTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,116 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42674</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -843,8 +847,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -905,8 +912,8 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
@@ -917,8 +924,11 @@
       <c r="Z9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -979,8 +989,8 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X10" s="3">
         <v>0</v>
@@ -991,8 +1001,11 @@
       <c r="Z10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1178,39 +1198,39 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-300</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1220,8 +1240,8 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1241,8 +1261,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1315,8 +1338,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,34 +1366,35 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>0</v>
@@ -1376,31 +1403,31 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
       <c r="T17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U17" s="3">
         <v>100</v>
       </c>
       <c r="V17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W17" s="3">
         <v>0</v>
@@ -1414,8 +1441,11 @@
       <c r="Z17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1426,22 +1456,22 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1450,31 +1480,31 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W18" s="3">
         <v>0</v>
@@ -1488,8 +1518,11 @@
       <c r="Z18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1549,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1590,8 +1624,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1602,13 +1639,13 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
@@ -1622,35 +1659,35 @@
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
       <c r="T21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U21" s="3">
         <v>-100</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W21" s="3">
         <v>0</v>
@@ -1664,8 +1701,11 @@
       <c r="Z21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,34 +1778,37 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -1774,31 +1817,31 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W23" s="3">
         <v>0</v>
@@ -1812,8 +1855,11 @@
       <c r="Z23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1877,17 +1923,20 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,34 +2009,37 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -1996,31 +2048,31 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W26" s="3">
         <v>0</v>
@@ -2034,34 +2086,37 @@
       <c r="Z26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>0</v>
@@ -2070,31 +2125,31 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W27" s="3">
         <v>0</v>
@@ -2108,8 +2163,11 @@
       <c r="Z27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2471,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2478,34 +2548,37 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -2514,31 +2587,31 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W33" s="3">
         <v>0</v>
@@ -2552,8 +2625,11 @@
       <c r="Z33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,34 +2702,37 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
@@ -2662,31 +2741,31 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W35" s="3">
         <v>0</v>
@@ -2700,87 +2779,93 @@
       <c r="Z35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42674</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,8 +2921,9 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2844,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -2856,14 +2943,14 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2894,11 +2981,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W41" s="3">
-        <v>0</v>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
@@ -2909,8 +2996,11 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,8 +3073,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3057,8 +3150,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,8 +3227,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3142,8 +3241,8 @@
       <c r="E45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -3160,14 +3259,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3187,11 +3286,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3205,8 +3304,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3214,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -3226,14 +3328,14 @@
         <v>100</v>
       </c>
       <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -3279,8 +3381,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,8 +3458,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3373,8 +3481,8 @@
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -3388,8 +3496,8 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3427,8 +3535,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3501,8 +3612,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3766,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3723,8 +3843,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,8 +3920,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3806,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
@@ -3818,14 +3944,14 @@
         <v>100</v>
       </c>
       <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -3871,8 +3997,11 @@
       <c r="Z54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,13 +4057,14 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -3942,13 +4073,13 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -3962,8 +4093,8 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3989,20 +4120,23 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
+      <c r="W57" s="3">
+        <v>0</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y57" s="3">
-        <v>0</v>
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4075,8 +4209,11 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4090,22 +4227,22 @@
         <v>600</v>
       </c>
       <c r="G59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>700</v>
       </c>
       <c r="I59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="J59" s="3">
         <v>500</v>
       </c>
       <c r="K59" s="3">
+        <v>500</v>
+      </c>
+      <c r="L59" s="3">
         <v>200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
@@ -4114,22 +4251,22 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -4149,8 +4286,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4161,25 +4301,25 @@
         <v>800</v>
       </c>
       <c r="F60" s="3">
+        <v>800</v>
+      </c>
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>500</v>
       </c>
       <c r="J60" s="3">
         <v>500</v>
       </c>
       <c r="K60" s="3">
+        <v>500</v>
+      </c>
+      <c r="L60" s="3">
         <v>200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
@@ -4188,16 +4328,16 @@
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="3">
         <v>300</v>
       </c>
       <c r="R60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S60" s="3">
         <v>100</v>
@@ -4209,7 +4349,7 @@
         <v>100</v>
       </c>
       <c r="V60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W60" s="3">
         <v>0</v>
@@ -4223,8 +4363,11 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4297,8 +4440,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4371,8 +4517,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,8 +4748,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4605,25 +4763,25 @@
         <v>800</v>
       </c>
       <c r="F66" s="3">
+        <v>800</v>
+      </c>
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>500</v>
       </c>
       <c r="J66" s="3">
         <v>500</v>
       </c>
       <c r="K66" s="3">
+        <v>500</v>
+      </c>
+      <c r="L66" s="3">
         <v>200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>100</v>
@@ -4632,16 +4790,16 @@
         <v>100</v>
       </c>
       <c r="O66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="3">
         <v>300</v>
       </c>
       <c r="R66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S66" s="3">
         <v>100</v>
@@ -4653,7 +4811,7 @@
         <v>100</v>
       </c>
       <c r="V66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W66" s="3">
         <v>0</v>
@@ -4667,8 +4825,11 @@
       <c r="Z66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,55 +5162,58 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="E72" s="3">
         <v>-1200</v>
       </c>
       <c r="F72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="G72" s="3">
         <v>-1100</v>
       </c>
       <c r="H72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I72" s="3">
         <v>-1000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-700</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-600</v>
       </c>
       <c r="K72" s="3">
         <v>-600</v>
       </c>
       <c r="L72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="M72" s="3">
         <v>-500</v>
       </c>
       <c r="N72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O72" s="3">
         <v>-200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-100</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-400</v>
       </c>
       <c r="Q72" s="3">
         <v>-400</v>
       </c>
       <c r="R72" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="S72" s="3">
         <v>-100</v>
@@ -5051,7 +5225,7 @@
         <v>-100</v>
       </c>
       <c r="V72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W72" s="3">
         <v>0</v>
@@ -5065,8 +5239,11 @@
       <c r="Z72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,8 +5470,11 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5296,7 +5482,7 @@
         <v>-800</v>
       </c>
       <c r="E76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="F76" s="3">
         <v>-700</v>
@@ -5305,19 +5491,19 @@
         <v>-700</v>
       </c>
       <c r="H76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-200</v>
       </c>
       <c r="K76" s="3">
         <v>-200</v>
       </c>
       <c r="L76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M76" s="3">
         <v>-100</v>
@@ -5326,16 +5512,16 @@
         <v>-100</v>
       </c>
       <c r="O76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="3">
         <v>-300</v>
       </c>
       <c r="R76" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="S76" s="3">
         <v>-100</v>
@@ -5347,7 +5533,7 @@
         <v>-100</v>
       </c>
       <c r="V76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W76" s="3">
         <v>0</v>
@@ -5361,8 +5547,11 @@
       <c r="Z76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,113 +5624,119 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42674</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>0</v>
@@ -5550,31 +5745,31 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W81" s="3">
         <v>0</v>
@@ -5588,8 +5783,11 @@
       <c r="Z81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5814,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5633,8 +5832,8 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -5648,8 +5847,8 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5690,8 +5889,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,8 +6274,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6078,20 +6295,20 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -6099,23 +6316,23 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
@@ -6134,8 +6351,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6382,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6236,8 +6457,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6611,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6458,8 +6688,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,8 +7025,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6793,27 +7039,27 @@
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -6827,17 +7073,17 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -6856,8 +7102,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,8 +7179,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6948,17 +7200,17 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>-100</v>
       </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -7002,6 +7254,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>SNTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,116 +665,123 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42947</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42766</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42674</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -850,8 +857,14 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -915,11 +928,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z9" s="3">
         <v>0</v>
@@ -927,8 +940,14 @@
       <c r="AA9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,11 +1011,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>0</v>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z10" s="3">
         <v>0</v>
@@ -1004,8 +1023,14 @@
       <c r="AA10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,8 +1058,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1110,8 +1137,14 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,67 +1220,73 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-300</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1264,8 +1303,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1341,8 +1386,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,8 +1418,10 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1376,65 +1429,65 @@
         <v>0</v>
       </c>
       <c r="E17" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>100</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
       <c r="Y17" s="3">
         <v>0</v>
       </c>
@@ -1444,8 +1497,14 @@
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1453,65 +1512,65 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
         <v>0</v>
       </c>
@@ -1521,8 +1580,14 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,8 +1615,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1627,8 +1694,14 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1636,22 +1709,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1662,39 +1735,39 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
+      <c r="N21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
         <v>0</v>
       </c>
@@ -1704,8 +1777,14 @@
       <c r="AA21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1781,8 +1860,14 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1790,65 +1875,65 @@
         <v>0</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
@@ -1858,8 +1943,14 @@
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1926,17 +2017,23 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>4</v>
+      <c r="Y24" s="3">
+        <v>0</v>
       </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,8 +2109,14 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2021,65 +2124,65 @@
         <v>0</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
@@ -2089,8 +2192,14 @@
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2098,65 +2207,65 @@
         <v>0</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
@@ -2166,8 +2275,14 @@
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2320,8 +2441,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,8 +2607,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2551,8 +2690,14 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2560,65 +2705,65 @@
         <v>0</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
@@ -2628,8 +2773,14 @@
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,8 +2856,14 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2714,65 +2871,65 @@
         <v>0</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
@@ -2782,90 +2939,102 @@
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42947</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42766</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42674</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,22 +3093,24 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -2946,17 +3119,17 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
+        <v>100</v>
+      </c>
+      <c r="K41" s="3">
+        <v>100</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2984,14 +3157,14 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
+      <c r="W41" s="3">
+        <v>0</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z41" s="3">
         <v>0</v>
@@ -2999,8 +3172,14 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,8 +3255,14 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3153,8 +3338,14 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3230,8 +3421,14 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3244,11 +3441,11 @@
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -3262,17 +3459,17 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -3289,14 +3486,14 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3307,22 +3504,28 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -3331,17 +3534,17 @@
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>100</v>
+      </c>
+      <c r="K46" s="3">
+        <v>100</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -3384,8 +3587,14 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3461,8 +3670,14 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3484,11 +3699,11 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -3499,11 +3714,11 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -3538,8 +3753,14 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3615,8 +3836,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,8 +4002,14 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3846,8 +4085,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,22 +4168,28 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
@@ -3947,17 +4198,17 @@
         <v>100</v>
       </c>
       <c r="J54" s="3">
+        <v>100</v>
+      </c>
+      <c r="K54" s="3">
+        <v>100</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
@@ -4000,8 +4251,14 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,34 +4317,36 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
@@ -4096,11 +4357,11 @@
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -4123,20 +4384,26 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4212,8 +4479,14 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4230,50 +4503,50 @@
         <v>600</v>
       </c>
       <c r="H59" s="3">
+        <v>600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>100</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
@@ -4289,8 +4562,14 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4304,7 +4583,7 @@
         <v>800</v>
       </c>
       <c r="G60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H60" s="3">
         <v>800</v>
@@ -4313,37 +4592,37 @@
         <v>700</v>
       </c>
       <c r="J60" s="3">
+        <v>800</v>
+      </c>
+      <c r="K60" s="3">
+        <v>700</v>
+      </c>
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>100</v>
-      </c>
-      <c r="N60" s="3">
-        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>300</v>
-      </c>
-      <c r="S60" s="3">
-        <v>100</v>
-      </c>
-      <c r="T60" s="3">
-        <v>100</v>
       </c>
       <c r="U60" s="3">
         <v>100</v>
@@ -4352,10 +4631,10 @@
         <v>100</v>
       </c>
       <c r="W60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y60" s="3">
         <v>0</v>
@@ -4366,8 +4645,14 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4443,8 +4728,14 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4520,8 +4811,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,8 +5060,14 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4766,7 +5081,7 @@
         <v>800</v>
       </c>
       <c r="G66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H66" s="3">
         <v>800</v>
@@ -4775,37 +5090,37 @@
         <v>700</v>
       </c>
       <c r="J66" s="3">
+        <v>800</v>
+      </c>
+      <c r="K66" s="3">
+        <v>700</v>
+      </c>
+      <c r="L66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
-      </c>
-      <c r="M66" s="3">
-        <v>100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>100</v>
       </c>
       <c r="O66" s="3">
         <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q66" s="3">
+        <v>100</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>100</v>
-      </c>
-      <c r="T66" s="3">
-        <v>100</v>
       </c>
       <c r="U66" s="3">
         <v>100</v>
@@ -4814,10 +5129,10 @@
         <v>100</v>
       </c>
       <c r="W66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y66" s="3">
         <v>0</v>
@@ -4828,8 +5143,14 @@
       <c r="AA66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,61 +5506,67 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="E72" s="3">
         <v>-1200</v>
       </c>
       <c r="F72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-1200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I72" s="3">
         <v>-1100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-400</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-100</v>
       </c>
       <c r="U72" s="3">
         <v>-100</v>
@@ -5228,10 +5575,10 @@
         <v>-100</v>
       </c>
       <c r="W72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y72" s="3">
         <v>0</v>
@@ -5242,8 +5589,14 @@
       <c r="AA72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,61 +5838,67 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="E76" s="3">
         <v>-800</v>
       </c>
       <c r="F76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H76" s="3">
         <v>-700</v>
       </c>
       <c r="I76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K76" s="3">
         <v>-600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-200</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-100</v>
       </c>
       <c r="O76" s="3">
         <v>-100</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-300</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-100</v>
       </c>
       <c r="U76" s="3">
         <v>-100</v>
@@ -5536,10 +5907,10 @@
         <v>-100</v>
       </c>
       <c r="W76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y76" s="3">
         <v>0</v>
@@ -5550,8 +5921,14 @@
       <c r="AA76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,90 +6004,102 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42947</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42766</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42674</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5718,65 +6107,65 @@
         <v>0</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
         <v>0</v>
       </c>
@@ -5786,8 +6175,14 @@
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,8 +6210,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5835,11 +6232,11 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -5850,11 +6247,11 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -5892,8 +6289,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,8 +6704,14 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6298,13 +6731,13 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
@@ -6313,32 +6746,32 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
@@ -6354,8 +6787,14 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,8 +6822,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6460,8 +6901,14 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,8 +7067,14 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6691,8 +7150,14 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +7185,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,13 +7513,19 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>200</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
@@ -7042,30 +7533,30 @@
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -7076,20 +7567,20 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
@@ -7105,8 +7596,14 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,13 +7679,19 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -7203,20 +7706,20 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -7257,6 +7760,12 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>SNTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,127 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -863,8 +867,11 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -934,8 +941,8 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z9" s="3">
-        <v>0</v>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA9" s="3">
         <v>0</v>
@@ -946,8 +953,11 @@
       <c r="AC9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,8 +1027,8 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z10" s="3">
-        <v>0</v>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA10" s="3">
         <v>0</v>
@@ -1029,8 +1039,11 @@
       <c r="AC10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,19 +1243,22 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1246,39 +1266,39 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-300</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1288,8 +1308,8 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1309,8 +1329,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,43 +1446,44 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>-100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
@@ -1465,31 +1492,31 @@
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
       <c r="V17" s="3">
         <v>0</v>
       </c>
       <c r="W17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X17" s="3">
         <v>100</v>
       </c>
       <c r="Y17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z17" s="3">
         <v>0</v>
@@ -1503,8 +1530,11 @@
       <c r="AC17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1512,34 +1542,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
@@ -1548,31 +1578,31 @@
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
       <c r="W18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z18" s="3">
         <v>0</v>
@@ -1586,8 +1616,11 @@
       <c r="AC18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1650,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1700,8 +1734,11 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1709,25 +1746,25 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
+      <c r="K21" s="3">
+        <v>0</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
@@ -1741,35 +1778,35 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
         <v>0</v>
       </c>
       <c r="W21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X21" s="3">
         <v>-100</v>
       </c>
       <c r="Y21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z21" s="3">
         <v>0</v>
@@ -1783,8 +1820,11 @@
       <c r="AC21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,43 +1906,46 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
@@ -1911,31 +1954,31 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
       <c r="W23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
       <c r="Y23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z23" s="3">
         <v>0</v>
@@ -1949,8 +1992,11 @@
       <c r="AC23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2023,17 +2069,20 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>0</v>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,43 +2164,46 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
@@ -2160,31 +2212,31 @@
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z26" s="3">
         <v>0</v>
@@ -2198,43 +2250,46 @@
       <c r="AC26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
@@ -2243,31 +2298,31 @@
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
       <c r="W27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z27" s="3">
         <v>0</v>
@@ -2281,8 +2336,11 @@
       <c r="AC27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2680,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2696,43 +2766,46 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
@@ -2741,31 +2814,31 @@
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
       <c r="W33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z33" s="3">
         <v>0</v>
@@ -2779,8 +2852,11 @@
       <c r="AC33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,43 +2938,46 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
@@ -2907,31 +2986,31 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
       <c r="W35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z35" s="3">
         <v>0</v>
@@ -2945,96 +3024,102 @@
       <c r="AC35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,8 +3181,9 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3104,7 +3191,7 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -3113,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -3125,14 +3212,14 @@
         <v>100</v>
       </c>
       <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -3163,11 +3250,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>0</v>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
@@ -3178,8 +3265,11 @@
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,8 +3351,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3344,8 +3437,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3523,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3447,8 +3546,8 @@
       <c r="H45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -3465,14 +3564,14 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3492,11 +3591,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0</v>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
@@ -3510,8 +3609,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3519,7 +3621,7 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -3528,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
@@ -3540,14 +3642,14 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -3593,8 +3695,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,13 +3781,16 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -3705,8 +3813,8 @@
       <c r="K48" s="3">
         <v>0</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
@@ -3720,8 +3828,8 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3759,8 +3867,11 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4125,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,8 +4297,11 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4183,7 +4309,7 @@
         <v>200</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -4192,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
@@ -4204,14 +4330,14 @@
         <v>100</v>
       </c>
       <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -4257,8 +4383,11 @@
       <c r="AC54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,8 +4449,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4331,10 +4462,10 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -4343,13 +4474,13 @@
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
@@ -4363,8 +4494,8 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -4390,20 +4521,23 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>4</v>
+      <c r="Z57" s="3">
+        <v>0</v>
       </c>
       <c r="AA57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB57" s="3">
-        <v>0</v>
+      <c r="AB57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,8 +4619,11 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4509,22 +4646,22 @@
         <v>600</v>
       </c>
       <c r="J59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K59" s="3">
         <v>700</v>
       </c>
       <c r="L59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="M59" s="3">
         <v>500</v>
       </c>
       <c r="N59" s="3">
+        <v>500</v>
+      </c>
+      <c r="O59" s="3">
         <v>200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
@@ -4533,22 +4670,22 @@
         <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
         <v>300</v>
       </c>
       <c r="U59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V59" s="3">
         <v>100</v>
       </c>
       <c r="W59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4568,8 +4705,11 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4589,25 +4729,25 @@
         <v>800</v>
       </c>
       <c r="I60" s="3">
+        <v>800</v>
+      </c>
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>500</v>
       </c>
       <c r="M60" s="3">
         <v>500</v>
       </c>
       <c r="N60" s="3">
+        <v>500</v>
+      </c>
+      <c r="O60" s="3">
         <v>200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>100</v>
@@ -4616,16 +4756,16 @@
         <v>100</v>
       </c>
       <c r="R60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T60" s="3">
         <v>300</v>
       </c>
       <c r="U60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V60" s="3">
         <v>100</v>
@@ -4637,7 +4777,7 @@
         <v>100</v>
       </c>
       <c r="Y60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z60" s="3">
         <v>0</v>
@@ -4651,8 +4791,11 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4734,8 +4877,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,13 +5221,16 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>800</v>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E66" s="3">
         <v>800</v>
@@ -5087,25 +5245,25 @@
         <v>800</v>
       </c>
       <c r="I66" s="3">
+        <v>800</v>
+      </c>
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>500</v>
       </c>
       <c r="M66" s="3">
         <v>500</v>
       </c>
       <c r="N66" s="3">
+        <v>500</v>
+      </c>
+      <c r="O66" s="3">
         <v>200</v>
-      </c>
-      <c r="O66" s="3">
-        <v>100</v>
       </c>
       <c r="P66" s="3">
         <v>100</v>
@@ -5114,16 +5272,16 @@
         <v>100</v>
       </c>
       <c r="R66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T66" s="3">
         <v>300</v>
       </c>
       <c r="U66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V66" s="3">
         <v>100</v>
@@ -5135,7 +5293,7 @@
         <v>100</v>
       </c>
       <c r="Y66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z66" s="3">
         <v>0</v>
@@ -5149,8 +5307,11 @@
       <c r="AC66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,64 +5683,67 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="E72" s="3">
         <v>-1200</v>
       </c>
       <c r="F72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-1200</v>
       </c>
       <c r="H72" s="3">
         <v>-1200</v>
       </c>
       <c r="I72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="J72" s="3">
         <v>-1100</v>
       </c>
       <c r="K72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L72" s="3">
         <v>-1000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-700</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-600</v>
       </c>
       <c r="N72" s="3">
         <v>-600</v>
       </c>
       <c r="O72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="P72" s="3">
         <v>-500</v>
       </c>
       <c r="Q72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R72" s="3">
         <v>-200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-100</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-400</v>
       </c>
       <c r="T72" s="3">
         <v>-400</v>
       </c>
       <c r="U72" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="V72" s="3">
         <v>-100</v>
@@ -5581,7 +5755,7 @@
         <v>-100</v>
       </c>
       <c r="Y72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z72" s="3">
         <v>0</v>
@@ -5595,8 +5769,11 @@
       <c r="AC72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,8 +6027,11 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5853,7 +6039,7 @@
         <v>-600</v>
       </c>
       <c r="E76" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="F76" s="3">
         <v>-800</v>
@@ -5862,7 +6048,7 @@
         <v>-800</v>
       </c>
       <c r="H76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="I76" s="3">
         <v>-700</v>
@@ -5871,19 +6057,19 @@
         <v>-700</v>
       </c>
       <c r="K76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-300</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-200</v>
       </c>
       <c r="N76" s="3">
         <v>-200</v>
       </c>
       <c r="O76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P76" s="3">
         <v>-100</v>
@@ -5892,16 +6078,16 @@
         <v>-100</v>
       </c>
       <c r="R76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="T76" s="3">
         <v>-300</v>
       </c>
       <c r="U76" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="V76" s="3">
         <v>-100</v>
@@ -5913,7 +6099,7 @@
         <v>-100</v>
       </c>
       <c r="Y76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z76" s="3">
         <v>0</v>
@@ -5927,8 +6113,11 @@
       <c r="AC76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,131 +6199,137 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
@@ -6143,31 +6338,31 @@
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
       <c r="W81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z81" s="3">
         <v>0</v>
@@ -6181,8 +6376,11 @@
       <c r="AC81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6238,8 +6437,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -6253,8 +6452,8 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -6295,8 +6494,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,13 +6924,16 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -6737,20 +6954,20 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -6758,23 +6975,23 @@
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>300</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
@@ -6793,8 +7010,11 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7044,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6907,8 +7128,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7300,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7156,8 +7386,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,17 +7762,20 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
@@ -7539,27 +7785,27 @@
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -7573,17 +7819,17 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
@@ -7602,8 +7848,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,17 +7934,20 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -7712,17 +7964,17 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -7766,6 +8018,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SNTW_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SNTW_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="92">
   <si>
     <t>SNTW</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,131 @@
     <col min="1" max="1" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42674</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -870,8 +874,11 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -944,8 +951,8 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA9" s="3">
-        <v>0</v>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB9" s="3">
         <v>0</v>
@@ -956,8 +963,11 @@
       <c r="AD9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1030,8 +1040,8 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB10" s="3">
         <v>0</v>
@@ -1042,8 +1052,11 @@
       <c r="AD10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1087,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1160,8 +1174,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,8 +1263,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1257,11 +1277,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1269,39 +1289,39 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-300</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1311,8 +1331,8 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1332,8 +1352,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1418,8 +1441,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,46 +1473,47 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>-100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
@@ -1495,31 +1522,31 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
         <v>0</v>
       </c>
       <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
         <v>0</v>
       </c>
       <c r="X17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="3">
         <v>100</v>
       </c>
       <c r="Z17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA17" s="3">
         <v>0</v>
@@ -1533,8 +1560,11 @@
       <c r="AD17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1542,37 +1572,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -1581,31 +1611,31 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
         <v>0</v>
       </c>
       <c r="X18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="3">
         <v>-100</v>
       </c>
       <c r="Z18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA18" s="3">
         <v>0</v>
@@ -1619,8 +1649,11 @@
       <c r="AD18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,8 +1684,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1737,8 +1771,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1749,25 +1786,25 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
         <v>0</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
+      <c r="L21" s="3">
+        <v>0</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
@@ -1781,35 +1818,35 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
         <v>0</v>
       </c>
       <c r="X21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="3">
         <v>-100</v>
       </c>
       <c r="Z21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA21" s="3">
         <v>0</v>
@@ -1823,8 +1860,11 @@
       <c r="AD21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1909,46 +1949,49 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
@@ -1957,31 +2000,31 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
         <v>0</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
         <v>0</v>
       </c>
       <c r="X23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="3">
         <v>-100</v>
       </c>
       <c r="Z23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA23" s="3">
         <v>0</v>
@@ -1995,8 +2038,11 @@
       <c r="AD23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2072,17 +2118,20 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>0</v>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,46 +2216,49 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
@@ -2215,31 +2267,31 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
         <v>0</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
       <c r="X26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="3">
         <v>-100</v>
       </c>
       <c r="Z26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA26" s="3">
         <v>0</v>
@@ -2253,46 +2305,49 @@
       <c r="AD26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -2301,31 +2356,31 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
         <v>0</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
         <v>0</v>
       </c>
       <c r="X27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="3">
         <v>-100</v>
       </c>
       <c r="Z27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA27" s="3">
         <v>0</v>
@@ -2339,8 +2394,11 @@
       <c r="AD27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2483,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,8 +2750,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2769,46 +2839,49 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
@@ -2817,31 +2890,31 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
         <v>0</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
       <c r="X33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="3">
         <v>-100</v>
       </c>
       <c r="Z33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA33" s="3">
         <v>0</v>
@@ -2855,8 +2928,11 @@
       <c r="AD33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,46 +3017,49 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
@@ -2989,31 +3068,31 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
         <v>0</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
       <c r="X35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="3">
         <v>-100</v>
       </c>
       <c r="Z35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA35" s="3">
         <v>0</v>
@@ -3027,99 +3106,105 @@
       <c r="AD35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42674</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,19 +3268,20 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -3203,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
@@ -3215,14 +3302,14 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -3253,11 +3340,11 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>0</v>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
@@ -3268,8 +3355,11 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,8 +3444,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3440,8 +3533,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3526,16 +3622,19 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
@@ -3549,8 +3648,8 @@
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3567,14 +3666,14 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3594,11 +3693,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>0</v>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
@@ -3612,19 +3711,22 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -3633,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -3645,14 +3747,14 @@
         <v>100</v>
       </c>
       <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -3698,8 +3800,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3709,20 +3814,20 @@
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3784,13 +3889,16 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -3816,8 +3924,8 @@
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
@@ -3831,8 +3939,8 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3870,8 +3978,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3956,8 +4067,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,8 +4245,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4214,8 +4334,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,19 +4423,22 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -4321,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
@@ -4333,14 +4459,14 @@
         <v>100</v>
       </c>
       <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -4386,8 +4512,11 @@
       <c r="AD54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,8 +4580,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4465,10 +4596,10 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -4477,13 +4608,13 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
@@ -4497,8 +4628,8 @@
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -4524,20 +4655,23 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>4</v>
+      <c r="AA57" s="3">
+        <v>0</v>
       </c>
       <c r="AB57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC57" s="3">
-        <v>0</v>
+      <c r="AC57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4622,8 +4756,11 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4649,22 +4786,22 @@
         <v>600</v>
       </c>
       <c r="K59" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>700</v>
       </c>
       <c r="M59" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="N59" s="3">
         <v>500</v>
       </c>
       <c r="O59" s="3">
+        <v>500</v>
+      </c>
+      <c r="P59" s="3">
         <v>200</v>
-      </c>
-      <c r="P59" s="3">
-        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
@@ -4673,22 +4810,22 @@
         <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3">
         <v>300</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="W59" s="3">
         <v>100</v>
       </c>
       <c r="X59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y59" s="3">
         <v>0</v>
@@ -4708,8 +4845,11 @@
       <c r="AD59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4732,25 +4872,25 @@
         <v>800</v>
       </c>
       <c r="J60" s="3">
+        <v>800</v>
+      </c>
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>500</v>
       </c>
       <c r="N60" s="3">
         <v>500</v>
       </c>
       <c r="O60" s="3">
+        <v>500</v>
+      </c>
+      <c r="P60" s="3">
         <v>200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>100</v>
       </c>
       <c r="Q60" s="3">
         <v>100</v>
@@ -4759,16 +4899,16 @@
         <v>100</v>
       </c>
       <c r="S60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T60" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U60" s="3">
         <v>300</v>
       </c>
       <c r="V60" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="W60" s="3">
         <v>100</v>
@@ -4780,7 +4920,7 @@
         <v>100</v>
       </c>
       <c r="Z60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA60" s="3">
         <v>0</v>
@@ -4794,8 +4934,11 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4880,8 +5023,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4966,8 +5112,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,13 +5379,16 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>800</v>
       </c>
       <c r="E66" s="3">
         <v>800</v>
@@ -5248,25 +5406,25 @@
         <v>800</v>
       </c>
       <c r="J66" s="3">
+        <v>800</v>
+      </c>
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>500</v>
       </c>
       <c r="N66" s="3">
         <v>500</v>
       </c>
       <c r="O66" s="3">
+        <v>500</v>
+      </c>
+      <c r="P66" s="3">
         <v>200</v>
-      </c>
-      <c r="P66" s="3">
-        <v>100</v>
       </c>
       <c r="Q66" s="3">
         <v>100</v>
@@ -5275,16 +5433,16 @@
         <v>100</v>
       </c>
       <c r="S66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T66" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U66" s="3">
         <v>300</v>
       </c>
       <c r="V66" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="W66" s="3">
         <v>100</v>
@@ -5296,7 +5454,7 @@
         <v>100</v>
       </c>
       <c r="Z66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA66" s="3">
         <v>0</v>
@@ -5310,8 +5468,11 @@
       <c r="AD66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,8 +5857,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5695,58 +5869,58 @@
         <v>-1300</v>
       </c>
       <c r="E72" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="F72" s="3">
         <v>-1200</v>
       </c>
       <c r="G72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H72" s="3">
         <v>-1300</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-1200</v>
       </c>
       <c r="I72" s="3">
         <v>-1200</v>
       </c>
       <c r="J72" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="K72" s="3">
         <v>-1100</v>
       </c>
       <c r="L72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M72" s="3">
         <v>-1000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-700</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-600</v>
       </c>
       <c r="O72" s="3">
         <v>-600</v>
       </c>
       <c r="P72" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="Q72" s="3">
         <v>-500</v>
       </c>
       <c r="R72" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S72" s="3">
         <v>-200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-100</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-400</v>
       </c>
       <c r="U72" s="3">
         <v>-400</v>
       </c>
       <c r="V72" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="W72" s="3">
         <v>-100</v>
@@ -5758,7 +5932,7 @@
         <v>-100</v>
       </c>
       <c r="Z72" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA72" s="3">
         <v>0</v>
@@ -5772,8 +5946,11 @@
       <c r="AD72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,19 +6213,22 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E76" s="3">
         <v>-600</v>
       </c>
       <c r="F76" s="3">
-        <v>-800</v>
+        <v>-600</v>
       </c>
       <c r="G76" s="3">
         <v>-800</v>
@@ -6051,7 +6237,7 @@
         <v>-800</v>
       </c>
       <c r="I76" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="J76" s="3">
         <v>-700</v>
@@ -6060,19 +6246,19 @@
         <v>-700</v>
       </c>
       <c r="L76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M76" s="3">
         <v>-600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-200</v>
       </c>
       <c r="O76" s="3">
         <v>-200</v>
       </c>
       <c r="P76" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q76" s="3">
         <v>-100</v>
@@ -6081,16 +6267,16 @@
         <v>-100</v>
       </c>
       <c r="S76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T76" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="U76" s="3">
         <v>-300</v>
       </c>
       <c r="V76" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="W76" s="3">
         <v>-100</v>
@@ -6102,7 +6288,7 @@
         <v>-100</v>
       </c>
       <c r="Z76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA76" s="3">
         <v>0</v>
@@ -6116,8 +6302,11 @@
       <c r="AD76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,137 +6391,143 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42674</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
@@ -6341,31 +6536,31 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
         <v>0</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
       <c r="X81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y81" s="3">
         <v>-100</v>
       </c>
       <c r="Z81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA81" s="3">
         <v>0</v>
@@ -6379,8 +6574,11 @@
       <c r="AD81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +6609,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6440,8 +6639,8 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>4</v>
@@ -6455,8 +6654,8 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -6497,8 +6696,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,17 +7141,20 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -6957,20 +7174,20 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -6978,23 +7195,23 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>300</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
@@ -7013,8 +7230,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,8 +7265,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7131,8 +7352,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,19 +7530,22 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -7323,11 +7553,11 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -7389,8 +7619,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7654,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7741,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,8 +8008,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7774,11 +8020,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
@@ -7788,27 +8034,27 @@
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -7822,17 +8068,17 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
@@ -7851,8 +8097,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7937,20 +8186,23 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -7967,17 +8219,17 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -8021,6 +8273,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
